--- a/data/income_statement/2digits/size/08_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/08_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>08-Other mining and quarrying</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>08-Other mining and quarrying</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,896 +841,1011 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1541855.6017</v>
+        <v>1552349.1948</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1978354.79874</v>
+        <v>2022901.96025</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2468244.9515</v>
+        <v>2502901.56827</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2941497.67764</v>
+        <v>2910769.21818</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3721480.74279</v>
+        <v>3869996.93219</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4118508.75171</v>
+        <v>4365946.830279999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4345575.188949999</v>
+        <v>4604403.37156</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5120250.689449999</v>
+        <v>5199801.03912</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6283317.545369999</v>
+        <v>6632166.098979999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8135947.730200001</v>
+        <v>8371815.55525</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7061133.3845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7310667.71742</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7994726.595</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1267902.01548</v>
+        <v>1269638.74275</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1679672.23552</v>
+        <v>1692552.37567</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2145691.93708</v>
+        <v>2127009.12807</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2514991.37131</v>
+        <v>2485775.13224</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3144837.78326</v>
+        <v>3219660.1496</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3463761.13817</v>
+        <v>3596820.76152</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3719031.81327</v>
+        <v>3829248.86526</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4441023.36112</v>
+        <v>4397518.17634</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5340106.56979</v>
+        <v>5560423.06213</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6359397.1533</v>
+        <v>6419524.23932</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5100355.397510001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5361517.29293</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6344478.384</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>220852.24667</v>
+        <v>230964.55141</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>252913.85352</v>
+        <v>292351.28243</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>267111.64944</v>
+        <v>327109.02234</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>338008.92204</v>
+        <v>339698.55235</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>479386.6966</v>
+        <v>561169.3126000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>526743.22111</v>
+        <v>625316.9764500001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>496287.52789</v>
+        <v>658750.04049</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>466010.05939</v>
+        <v>623683.9915</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>727622.1844800001</v>
+        <v>849694.899</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1472156.18667</v>
+        <v>1663854.64767</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1732040.90778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1754581.26282</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1462012.624</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>53101.33955</v>
+        <v>51745.90064</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>45768.7097</v>
+        <v>37998.30215</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>55441.36498000001</v>
+        <v>48783.41786</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>88497.38429</v>
+        <v>85295.53359000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>97256.26293000001</v>
+        <v>89167.46999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>128004.39243</v>
+        <v>143809.09231</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>130255.84779</v>
+        <v>116404.46581</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>213217.26894</v>
+        <v>178598.87128</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>215588.7911</v>
+        <v>222048.13785</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>304394.39023</v>
+        <v>288436.66826</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>228737.07921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>194569.16167</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>188235.587</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>16183.97894</v>
+        <v>24400.15731</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8733.51802</v>
+        <v>20263.38922</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6275.68673</v>
+        <v>17322.32957</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>12454.71358</v>
+        <v>20523.48297</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>16473.72398</v>
+        <v>32305.19017</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>16095.01124</v>
+        <v>52757.36411</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>20534.63844</v>
+        <v>18121.54991</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>54523.43786999999</v>
+        <v>38516.64458</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>51082.21801</v>
+        <v>45946.18419000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>84569.17752</v>
+        <v>85289.56312000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>76418.34879999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>74118.10087000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>148816.224</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4094.71659</v>
+        <v>4650.87723</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5047.70447</v>
+        <v>6424.303199999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4292.60289</v>
+        <v>4215.32483</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>8343.96681</v>
+        <v>5597.42791</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>5058.67224</v>
+        <v>7802.46268</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>11982.67</v>
+        <v>12570.41991</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>15324.17167</v>
+        <v>13304.36868</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>48153.61587</v>
+        <v>31409.54669</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>43404.53922</v>
+        <v>36439.04883</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>47364.28861</v>
+        <v>47363.50106</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>50368.66534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>49052.21883999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>97728.383</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>738.96912</v>
+        <v>2538.82079</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>914.9454800000001</v>
+        <v>1480.50052</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>944.39062</v>
+        <v>1068.05734</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2958.75635</v>
+        <v>3708.38903</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6489.587820000001</v>
+        <v>2733.97217</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2594.34554</v>
+        <v>11580.12925</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3798.5867</v>
+        <v>3215.77215</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4462.22316</v>
+        <v>5489.81409</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>4918.253839999999</v>
+        <v>6617.58097</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5274.63352</v>
+        <v>5231.88946</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>10741.81635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7658.74331</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>33062.881</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>11350.29323</v>
+        <v>17210.45929</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2770.86807</v>
+        <v>12358.5855</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1038.69322</v>
+        <v>12038.9474</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1151.99042</v>
+        <v>11217.66603</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4925.46392</v>
+        <v>21768.75532</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1517.9957</v>
+        <v>28606.81495</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1411.88007</v>
+        <v>1601.40908</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1907.59884</v>
+        <v>1617.2838</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2759.42495</v>
+        <v>2889.55439</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>31930.25539</v>
+        <v>32694.1726</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>15307.86711</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>17407.13872</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>18024.96</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1525671.62276</v>
+        <v>1527949.03749</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1969621.28072</v>
+        <v>2002638.57103</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2461969.26477</v>
+        <v>2485579.2387</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2929042.964060001</v>
+        <v>2890245.73521</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3705007.01881</v>
+        <v>3837691.74202</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4102413.74047</v>
+        <v>4313189.46617</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4325040.55051</v>
+        <v>4586281.821649999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5065727.25158</v>
+        <v>5161284.39454</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6232235.32736</v>
+        <v>6586219.91479</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8051378.552680001</v>
+        <v>8286525.99213</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6984715.0357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7236549.616549999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7845910.371</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1158106.99822</v>
+        <v>1114912.17882</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1499238.48618</v>
+        <v>1501026.44634</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1925975.61803</v>
+        <v>1934529.35366</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2251382.30713</v>
+        <v>2191508.46303</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2840898.46383</v>
+        <v>2889068.19014</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3165397.27221</v>
+        <v>3280545.2707</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3337854.92759</v>
+        <v>3430281.34304</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3978919.3685</v>
+        <v>3987909.85575</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4856616.94738</v>
+        <v>5147257.989800001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6070270.89618</v>
+        <v>6119315.756139999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5127097.04877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5161724.5792</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5756163.297</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>746876.90911</v>
+        <v>721213.17282</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>882789.80324</v>
+        <v>917463.8558400001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1192870.65913</v>
+        <v>1192517.07166</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1467878.92653</v>
+        <v>1385520.3622</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1820440.16033</v>
+        <v>1916391.38123</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2176963.76335</v>
+        <v>2273484.79371</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2226773.41545</v>
+        <v>2262646.28709</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2620557.83287</v>
+        <v>2684280.9767</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3093168.29702</v>
+        <v>3277770.84616</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4128831.86343</v>
+        <v>4148956.15242</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3577105.14341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3627152.38925</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3921964.038</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>126167.92747</v>
+        <v>119155.79056</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>218835.58051</v>
+        <v>205623.11735</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>236349.20128</v>
+        <v>265082.81759</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>258617.40768</v>
+        <v>247209.7353</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>277889.85789</v>
+        <v>274278.12593</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>294307.12957</v>
+        <v>287006.2374099999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>358129.97205</v>
+        <v>383154.89356</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>445242.5199199999</v>
+        <v>423601.82623</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>574764.99731</v>
+        <v>635538.81452</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>569460.56442</v>
+        <v>555361.4404</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>547330.12214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>507514.65549</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1066205.711</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>278026.33243</v>
+        <v>267412.08157</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>378682.98537</v>
+        <v>366452.91355</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>489685.81515</v>
+        <v>470156.39984</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>515127.89748</v>
+        <v>550169.5477400001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>731211.7483999999</v>
+        <v>684988.9126700001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>670766.76865</v>
+        <v>694315.26199</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>728586.1571899999</v>
+        <v>764586.1556000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>852567.1006299999</v>
+        <v>826176.4492299999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1124230.0291</v>
+        <v>1158591.22757</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1259907.88114</v>
+        <v>1263034.12552</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>915480.13523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>946636.55224</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>703832.412</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>7035.82921</v>
+        <v>7131.13387</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>18930.11706</v>
+        <v>11486.5596</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>7069.94247</v>
+        <v>6773.06457</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>9758.075439999999</v>
+        <v>8608.817789999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>11356.69721</v>
+        <v>13409.77031</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>23359.61064</v>
+        <v>25738.97759</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>24365.3829</v>
+        <v>19894.00679</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>60551.91508</v>
+        <v>53850.60359</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>64453.62395</v>
+        <v>75357.10154999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>112070.58719</v>
+        <v>151964.0378</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>87181.64799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>80420.98222000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>64161.136</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>367564.62454</v>
+        <v>413036.85867</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>470382.79454</v>
+        <v>501612.12469</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>535993.64674</v>
+        <v>551049.88504</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>677660.6569299999</v>
+        <v>698737.2721800001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>864108.55498</v>
+        <v>948623.55188</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>937016.46826</v>
+        <v>1032644.19547</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>987185.62292</v>
+        <v>1156000.47861</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1086807.88308</v>
+        <v>1173374.53879</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1375618.37998</v>
+        <v>1438961.92499</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1981107.6565</v>
+        <v>2167210.23599</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1857617.98693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2074825.03735</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2089747.074</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>253148.95497</v>
+        <v>251327.45596</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>294714.30729</v>
+        <v>285071.2979</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>344926.65017</v>
+        <v>330471.45935</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>421920.09778</v>
+        <v>403385.75115</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>519711.17587</v>
+        <v>536937.5625600001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>591902.11338</v>
+        <v>639968.04888</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>603259.83462</v>
+        <v>654996.74008</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>682836.58661</v>
+        <v>686160.61049</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>797720.09224</v>
+        <v>798082.0927799999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1138832.63404</v>
+        <v>1125295.63545</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1056080.80227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1031843.72576</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1049916.974</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>331.69725</v>
+        <v>311.18927</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2045.16387</v>
+        <v>1684.13794</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>2338.39938</v>
+        <v>367.59722</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2058.5891</v>
+        <v>451.9228</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2124.96337</v>
+        <v>1952.92671</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2880.10402</v>
+        <v>2649.24317</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>609.1049300000001</v>
+        <v>824.1690800000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7847.034979999999</v>
+        <v>8255.964689999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>6465.967850000001</v>
+        <v>5294.248219999999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>7196.91352</v>
+        <v>3433.85796</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2720.23557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2111.44531</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1717.302</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>133017.12409</v>
+        <v>134789.64221</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>157608.90472</v>
+        <v>163910.26332</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>177220.28789</v>
+        <v>179788.07634</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>195134.51499</v>
+        <v>198539.08832</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>273793.73962</v>
+        <v>289963.07714</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>303458.0323500001</v>
+        <v>340298.32012</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>286506.40896</v>
+        <v>325222.17968</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>300173.03321</v>
+        <v>331185.85455</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>357058.52133</v>
+        <v>376372.45897</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>598245.9898300001</v>
+        <v>604025.15781</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>571476.12349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>578352.6145800001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>560778.927</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>119800.13363</v>
+        <v>116226.62448</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>135060.2387</v>
+        <v>119476.89664</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>165367.9629</v>
+        <v>150315.78579</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>224726.99369</v>
+        <v>204394.74003</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>243792.47288</v>
+        <v>245021.55871</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>285563.97701</v>
+        <v>297020.48559</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>316144.32073</v>
+        <v>328950.3913200001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>374816.51842</v>
+        <v>346718.79125</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>434195.60306</v>
+        <v>416415.38559</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>533389.73069</v>
+        <v>517836.61968</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>481884.4432100001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>451379.66587</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>487420.745</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>114415.66957</v>
+        <v>161709.40271</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>175668.48725</v>
+        <v>216540.82679</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>191066.99657</v>
+        <v>220578.42569</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>255740.55915</v>
+        <v>295351.52103</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>344397.37911</v>
+        <v>411685.9893200001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>345114.35488</v>
+        <v>392676.14659</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>383925.7883</v>
+        <v>501003.73853</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>403971.29647</v>
+        <v>487213.9283</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>577898.2877400001</v>
+        <v>640879.83221</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>842275.02246</v>
+        <v>1041914.60054</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>801537.18466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1042981.31159</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1039830.1</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>45368.60868</v>
+        <v>56042.41797</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>43894.10816</v>
+        <v>50250.26933</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>71624.57500999999</v>
+        <v>67463.99034</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>53836.78383</v>
+        <v>57392.20415</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>102438.46141</v>
+        <v>122896.12405</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>98269.18388999999</v>
+        <v>159309.77346</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>138226.8686</v>
+        <v>283922.94044</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>163173.19665</v>
+        <v>191775.30638</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>159535.26272</v>
+        <v>191699.52178</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>830832.65559</v>
+        <v>884149.18426</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>426213.6084500001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>454034.70561</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>525888.203</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2855.9724</v>
+        <v>356.90923</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3471.16279</v>
+        <v>56.74236</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>4235.3258</v>
+        <v>1284.09189</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1565.33522</v>
+        <v>3435.26268</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>9374.420239999999</v>
+        <v>9189.367249999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>4685.8324</v>
+        <v>14651.30703</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4430.4349</v>
+        <v>4194.79105</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3642.36327</v>
+        <v>1416.03529</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4746.45361</v>
+        <v>8905.62529</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>5792.97635</v>
+        <v>2975.67426</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3990.811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>6152.49911</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>822.504</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>332.55594</v>
+        <v>244.05025</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>238.76772</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>74.95521000000001</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>548.71537</v>
+        <v>1898.24942</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>684.6385299999999</v>
+        <v>684.52273</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>270.2740899999999</v>
+        <v>270.26677</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>0.25658</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>140.83198</v>
@@ -1838,211 +1854,241 @@
         <v>3505.50372</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>3857.52293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>3761.36791</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1137.84</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>7164.96675</v>
+        <v>9376.430980000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6543.55774</v>
+        <v>7524.85621</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>8088.076279999999</v>
+        <v>7768.362349999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>10834.6305</v>
+        <v>12261.05305</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>10128.75279</v>
+        <v>14451.85013</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>17682.2463</v>
+        <v>26883.78127</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>15207.7758</v>
+        <v>22783.13673</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>22727.10836</v>
+        <v>20470.46747</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>20509.76597</v>
+        <v>18139.25238</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>51298.73046</v>
+        <v>75119.62851</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>41150.86158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>80052.91073999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>42527.16</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>854.66733</v>
+        <v>820.2143400000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>27.10286</v>
+        <v>10.59098</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>43.41595</v>
+        <v>23.46854</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>46.01005</v>
+        <v>208.47731</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>260.86888</v>
+        <v>375.15399</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>71.17144</v>
+        <v>27.11713</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>148.07891</v>
+        <v>1018.32034</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>441.18794</v>
+        <v>443.80978</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>1059.24441</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1155.32038</v>
+        <v>787.2938300000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>131.22565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>134.34735</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>810.319</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2430.27801</v>
+        <v>1989.77133</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>861.27315</v>
+        <v>883.22614</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>206.07611</v>
+        <v>293.48969</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>762.07717</v>
+        <v>845.81327</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1295.03581</v>
+        <v>1305.02614</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1912.03934</v>
+        <v>3329.44761</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>849.73748</v>
+        <v>1285.62354</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1631.21941</v>
+        <v>2367.53634</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2764.10408</v>
+        <v>1222.55999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>29346.00565</v>
+        <v>1954.49423</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>31009.0856</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2291.6028</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2189.133</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>443.2176000000001</v>
+        <v>304.66879</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>141.15427</v>
+        <v>141.11954</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>152.24655</v>
+        <v>157.59097</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>934.7814499999999</v>
+        <v>1920.4166</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>85.75672999999999</v>
+        <v>361.15462</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>160.62525</v>
+        <v>8797.741900000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>569.74925</v>
+        <v>4945.16761</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1184.78151</v>
+        <v>607.48385</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>613.6188400000001</v>
+        <v>2851.08176</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>10913.95185</v>
+        <v>636.10612</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>862.2621599999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>648.28205</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>513.366</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>22898.93876</v>
+        <v>35183.35862</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>24229.79497</v>
+        <v>32310.3224</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>41347.75878</v>
+        <v>43730.79979</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>21598.48768</v>
+        <v>21317.72162</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>57799.78720000001</v>
+        <v>70490.22332999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>52030.46498999999</v>
+        <v>79482.81965</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>91893.88415000001</v>
+        <v>217534.14071</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>99823.31061999999</v>
+        <v>126953.3514</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>100542.2315</v>
+        <v>117975.4024</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>646022.04279</v>
+        <v>714255.1658</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>254474.92827</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>278976.62367</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>418668.814</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>52.68022</v>
+        <v>41.98656</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
@@ -2051,16 +2097,16 @@
         <v>7.31616</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>96.6117</v>
+        <v>94.58978999999999</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>140.58822</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>680.39144</v>
+        <v>1100.06283</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>115.32857</v>
+        <v>322.97222</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>47.77757</v>
@@ -2074,35 +2120,40 @@
       <c r="M33" s="48" t="n">
         <v>737.6140899999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>664.682</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>93.96159</v>
+        <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>0.00405</v>
+        <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>115.88046</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>4.42458</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>110.83571</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>0</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>429.23122</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8667.88761</v>
+        <v>7969.07812</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>8193.54485</v>
+        <v>9079.361449999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>17305.59166</v>
+        <v>13960.10323</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>17923.8908</v>
+        <v>17308.86983</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>22804.53617</v>
+        <v>24684.51095</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>20245.89374</v>
+        <v>24352.97331</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>24737.18087</v>
+        <v>31564.09689</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>33564.61225999999</v>
+        <v>39468.5881</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>28999.39031</v>
+        <v>41245.90155</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>81302.61433</v>
+        <v>83419.80773</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>89570.06595</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>80850.22667</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>58554.385</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>41032.78105</v>
+        <v>45865.094</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>34134.08473</v>
+        <v>37829.33422999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>52633.15005</v>
+        <v>59155.244</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>33654.26656</v>
+        <v>34375.88184</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>84532.36347999999</v>
+        <v>94330.16985999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>69083.85269</v>
+        <v>102146.24493</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>117507.84829</v>
+        <v>169059.21042</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>143012.25932</v>
+        <v>139701.24712</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>133184.92489</v>
+        <v>152922.7269</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>657546.43385</v>
+        <v>820927.3456900001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>308875.79944</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>293924.80204</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>424568.686</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1409.90431</v>
+        <v>970.5627099999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1120.62822</v>
+        <v>1168.33944</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1488.80859</v>
+        <v>1456.44647</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>988.3468200000001</v>
+        <v>1004.26922</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>733.86894</v>
+        <v>881.3914</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>358.45379</v>
+        <v>783.64476</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>519.67101</v>
+        <v>722.46597</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>672.8478299999999</v>
+        <v>835.00278</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>737.0073599999999</v>
+        <v>889.16737</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1521.82174</v>
+        <v>1502.90347</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1550.60863</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1383.29348</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1107.556</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>10999.30037</v>
+        <v>11081.38175</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3301.2742</v>
+        <v>3252.9805</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1294.15141</v>
+        <v>1605.73221</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>3101.44504</v>
+        <v>4764.787939999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>8217.913779999999</v>
+        <v>8479.065339999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>6532.265010000001</v>
+        <v>11305.42546</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5402.10734</v>
+        <v>9845.213810000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11482.21788</v>
+        <v>16369.97123</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6741.804059999999</v>
+        <v>6014.97579</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>16324.57281</v>
+        <v>45423.28576000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>44728.56582</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>20803.23899</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>7976.834</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0.0698</v>
+        <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>363.27411</v>
+        <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>280.57821</v>
+        <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>0.01896</v>
+        <v>130.31902</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1024.74212</v>
+        <v>1011.69486</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>2303.07904</v>
+        <v>586.22277</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>114.2844</v>
+        <v>1777.71624</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>196.40593</v>
+        <v>146.03373</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>77.88767999999999</v>
+        <v>2412.064019999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>330.22183</v>
+        <v>752.24396</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>9.94068</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>0.171</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>22104.8003</v>
+        <v>31191.2779</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>23590.97479</v>
+        <v>27481.23359</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>41511.59903</v>
+        <v>50286.97378</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>22909.17364</v>
+        <v>22554.11413</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>67534.43067999999</v>
+        <v>78151.16608</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>45682.05613</v>
+        <v>75397.37688</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>98432.78785000001</v>
+        <v>141244.01013</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>112396.33736</v>
+        <v>109456.4894</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>115772.55431</v>
+        <v>133916.25412</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>600548.79109</v>
+        <v>732335.4034900001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>231801.44312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>251698.89711</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>395800.876</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>255.9226</v>
+        <v>4.466</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>5.9</v>
@@ -2369,28 +2455,33 @@
         <v>281.34814</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>585.14225</v>
+        <v>1417.56134</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>163.15824</v>
+        <v>424.87346</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>325.49161</v>
+        <v>132.72638</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>130.61034</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1734.10845</v>
+        <v>1731.10761</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>656.8761999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>765.929</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2411,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>20.85015</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>24.56596</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>166.88849</v>
+        <v>645.10119</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>6262.78367</v>
+        <v>2617.40564</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5752.03341</v>
+        <v>5920.880700000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8056.93908</v>
+        <v>5805.01781</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>6568.539100000001</v>
+        <v>5835.648529999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>6740.05982</v>
+        <v>5525.50404</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>13622.85647</v>
+        <v>12656.01372</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>12854.9893</v>
+        <v>15044.93081</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>17914.39275</v>
+        <v>12761.0236</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>9558.17265</v>
+        <v>8914.55407</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>37086.91793</v>
+        <v>39182.4014</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>30128.36499</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>19382.49626</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>18917.32</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>43610.41743</v>
+        <v>56869.53298999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>35507.09565</v>
+        <v>33918.29434</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>49191.59356999999</v>
+        <v>51107.65118</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>67072.27142999999</v>
+        <v>67033.76161999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>88661.86048999999</v>
+        <v>95128.51772</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>117118.25391</v>
+        <v>122627.29249</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>109085.19421</v>
+        <v>125103.42402</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>138349.78198</v>
+        <v>141302.34507</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>157554.50641</v>
+        <v>175185.88577</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>350245.71593</v>
+        <v>336077.45964</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>315839.3115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>386471.76406</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>288104.559</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>39721.63209</v>
+        <v>52118.82536</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>32859.86381</v>
+        <v>30390.68462</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>46665.82545</v>
+        <v>48362.33219</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>63710.05765</v>
+        <v>61078.07102</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>78516.78964</v>
+        <v>84987.34931999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>106667.19942</v>
+        <v>109809.5848</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>100671.00589</v>
+        <v>114440.30221</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>126099.11029</v>
+        <v>126866.18425</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>144806.07045</v>
+        <v>162570.0093</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>322762.66502</v>
+        <v>311882.38813</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>306237.32811</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>376607.03275</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>268085.94</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3888.78534</v>
+        <v>4750.70763</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2647.23184</v>
+        <v>3527.60972</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2525.76812</v>
+        <v>2745.31899</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3362.21378</v>
+        <v>5955.690600000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>10145.07085</v>
+        <v>10141.1684</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>10451.05449</v>
+        <v>12817.70769</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>8414.188320000001</v>
+        <v>10663.12181</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>12250.67169</v>
+        <v>14436.16082</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>12748.43596</v>
+        <v>12615.87647</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>27483.05091</v>
+        <v>24195.07151</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>9601.983390000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>9864.731310000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>20018.619</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>75141.07977</v>
+        <v>115017.19369</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>149921.41503</v>
+        <v>195043.46755</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>160866.82796</v>
+        <v>177779.52085</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>208850.80499</v>
+        <v>251334.08172</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>273641.61655</v>
+        <v>345123.42579</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>257181.43217</v>
+        <v>327212.38263</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>295559.6144</v>
+        <v>490764.04453</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>285782.45182</v>
+        <v>397985.6424899999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>446694.1191599999</v>
+        <v>504470.74132</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>665315.52827</v>
+        <v>769058.97947</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>603035.6821699999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>816619.4511000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>853045.058</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>41596.61645</v>
+        <v>22810.46514</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>27244.04088</v>
+        <v>19582.49217</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>57187.62133</v>
+        <v>28253.37457</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>37703.04598</v>
+        <v>28621.81868</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>40295.05189</v>
+        <v>69280.42006999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>45701.25505000001</v>
+        <v>68310.96009000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>72321.20686000001</v>
+        <v>56029.85941</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>80917.73814</v>
+        <v>78194.73561999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>108870.83775</v>
+        <v>124937.69724</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>97468.92256000001</v>
+        <v>86555.39923</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>129423.09522</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>160456.80769</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>83754.727</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>458.48447</v>
+        <v>107.61318</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>513.0595500000001</v>
+        <v>177.76884</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2198.80298</v>
+        <v>724.0406399999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>486.8327</v>
+        <v>388.58823</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>802.8181</v>
+        <v>407.66378</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>62.30882</v>
+        <v>3517.9279</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2112.22965</v>
+        <v>4822.03482</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>584.35803</v>
+        <v>601.92692</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>509.19296</v>
+        <v>1314.33889</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>598.94724</v>
+        <v>802.72951</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3417.11534</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4087.61299</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3195.077</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>41138.13198000001</v>
+        <v>22702.85196</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>26730.98133</v>
+        <v>19404.72333</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>54988.81835</v>
+        <v>27529.33393</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>37216.21328</v>
+        <v>28233.23045</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>39492.23379</v>
+        <v>68872.75629</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>45638.94623</v>
+        <v>64793.03219</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>70208.97721000001</v>
+        <v>51207.82459</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>80333.38011</v>
+        <v>77592.80870000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>108361.64479</v>
+        <v>123623.35835</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>96869.97532000001</v>
+        <v>85752.66972000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>126005.97988</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>156369.1947</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>80559.64999999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>34149.96165999999</v>
+        <v>20267.51844</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>33181.69963</v>
+        <v>22051.23317</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>144040.77267</v>
+        <v>127033.87372</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>46249.94315000001</v>
+        <v>35489.98807</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>51929.5726</v>
+        <v>54604.40766</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>96415.92272</v>
+        <v>85717.37779</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>61183.26161</v>
+        <v>56045.10399</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>158324.54012</v>
+        <v>147172.69908</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>73470.54803000001</v>
+        <v>82605.15687999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>167239.66725</v>
+        <v>166902.35893</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>97743.18321999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>106520.30147</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>107522.673</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>8545.39227</v>
+        <v>4395.85534</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>7945.07238</v>
+        <v>4145.30826</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>6074.739570000001</v>
+        <v>7424.94576</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>7338.42019</v>
+        <v>7817.6997</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>6660.63405</v>
+        <v>14280.7906</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>8830.826200000001</v>
+        <v>14635.25892</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>10935.55895</v>
+        <v>7999.058379999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>12301.31851</v>
+        <v>9309.587949999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>8317.24201</v>
+        <v>8764.026620000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>37959.88754</v>
+        <v>49401.41546</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>31261.09428</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>40663.96443</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>47544.98</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4886.569640000001</v>
+        <v>2925.12076</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>4729.303</v>
+        <v>1686.89311</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3436.53233</v>
+        <v>1865.72137</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2985.17819</v>
+        <v>3206.99883</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5413.709470000001</v>
+        <v>3518.22934</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2417.81177</v>
+        <v>4653.66149</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4167.04076</v>
+        <v>3226.31289</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2531.93158</v>
+        <v>5548.8326</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5880.30727</v>
+        <v>7684.414100000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>9160.375310000001</v>
+        <v>10483.14182</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>7303.34585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9930.80881</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6515.422</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>20717.99975</v>
+        <v>12946.54234</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>20507.32425</v>
+        <v>16219.0318</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>134529.50077</v>
+        <v>117743.20659</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>35926.34477</v>
+        <v>24465.28954</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>39855.22908</v>
+        <v>36805.38772</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>85167.28475000001</v>
+        <v>66428.45738000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>46080.6619</v>
+        <v>44819.73272</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>143491.29003</v>
+        <v>132314.27853</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>59272.99875</v>
+        <v>66156.71616</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>120119.4044</v>
+        <v>107017.80165</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>59178.74309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>55925.52823</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>53462.271</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>82587.73456</v>
+        <v>117560.14039</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>143983.75628</v>
+        <v>192574.72655</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>74013.67662</v>
+        <v>78999.0217</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>200303.90782</v>
+        <v>244465.91233</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>262007.09584</v>
+        <v>359799.4382</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>206466.7645</v>
+        <v>309805.96493</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>306697.55965</v>
+        <v>490748.79995</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>208375.64984</v>
+        <v>329007.67903</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>482094.40888</v>
+        <v>546803.2816799999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>595544.78358</v>
+        <v>688712.01977</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>634715.5941700001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>870555.95732</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>829277.112</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>24601.42096</v>
+        <v>28619.19787</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>31137.44647</v>
+        <v>38142.36878</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>37440.91881</v>
+        <v>37423.90476999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>39657.15633</v>
+        <v>46778.15282000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>53172.60769999999</v>
+        <v>63941.38429</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>51243.54032</v>
+        <v>66080.97123000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>62924.36439</v>
+        <v>89186.41124000002</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>60920.47794</v>
+        <v>78310.62795000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>92160.50398000001</v>
+        <v>99589.87977</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>145636.65016</v>
+        <v>169807.29528</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>118853.58406</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>142840.26543</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>150109.283</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>57986.3136</v>
+        <v>88940.94252</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>112846.30981</v>
+        <v>154432.35777</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>36572.75781</v>
+        <v>41575.11693</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>160646.75149</v>
+        <v>197687.75951</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>208834.48814</v>
+        <v>295858.05391</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>155223.22418</v>
+        <v>243724.9937</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>243773.19526</v>
+        <v>401562.38871</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>147455.1719</v>
+        <v>250697.05108</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>389933.9049</v>
+        <v>447213.40191</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>449908.13342</v>
+        <v>518904.72449</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>515862.01011</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>727715.69189</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>679167.829</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>341</v>
+        <v>229</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>399</v>
+        <v>268</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>420</v>
+        <v>295</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>489</v>
+        <v>313</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>555</v>
+        <v>385</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>193</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>